--- a/inasistencias-4b-tc/alumnos-4b-tc.xlsx
+++ b/inasistencias-4b-tc/alumnos-4b-tc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="225">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -41,6 +41,9 @@
     <t xml:space="preserve">Dirección de correo</t>
   </si>
   <si>
+    <t xml:space="preserve">obs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ivan</t>
   </si>
   <si>
@@ -164,6 +167,9 @@
     <t xml:space="preserve">49837749@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Tarde 12:40</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ramiro Ezequiel</t>
   </si>
   <si>
@@ -171,6 +177,9 @@
   </si>
   <si>
     <t xml:space="preserve">49676837@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tade 12:45</t>
   </si>
   <si>
     <t xml:space="preserve">Benjamin</t>
@@ -776,7 +785,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -786,10 +795,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -810,7 +815,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -823,6 +828,28 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF232629"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -895,18 +922,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,22 +953,31 @@
       <c r="E1" s="2" t="n">
         <v>45785</v>
       </c>
+      <c r="F1" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,16 +985,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -965,16 +1005,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,16 +1025,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,16 +1045,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,16 +1065,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,16 +1085,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,16 +1105,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,16 +1125,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,16 +1145,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,16 +1165,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,16 +1185,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,16 +1205,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,16 +1228,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,16 +1251,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,21 +1271,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="n">
         <f aca="false">COUNTIF(E2:E17,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F17,"P")</f>
         <v>14</v>
       </c>
     </row>
@@ -1223,10 +1315,10 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
@@ -1240,46 +1332,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -1315,7 +1407,7 @@
         <f aca="false">ROUND(AVERAGE(C2,E2,G2,I2,N2),0)</f>
         <v>1</v>
       </c>
-      <c r="P2" s="4" t="str">
+      <c r="P2" s="3" t="str">
         <f aca="false">IF(O2&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1325,27 +1417,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="4" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="4" t="n">
         <v>9</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="4" t="n">
         <v>8</v>
       </c>
       <c r="J3" s="2" t="n">
@@ -1365,7 +1457,7 @@
         <f aca="false">ROUND(AVERAGE(C3,E3,G3,I3,N3),0)</f>
         <v>6</v>
       </c>
-      <c r="P3" s="4" t="str">
+      <c r="P3" s="3" t="str">
         <f aca="false">IF(O3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1375,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>8</v>
@@ -1404,7 +1496,7 @@
         <f aca="false">ROUND(AVERAGE(C4,E4,G4,I4,N4),0)</f>
         <v>8</v>
       </c>
-      <c r="P4" s="4" t="str">
+      <c r="P4" s="3" t="str">
         <f aca="false">IF(O4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1414,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>10</v>
@@ -1442,7 +1534,7 @@
         <f aca="false">ROUND(AVERAGE(C5,E5,G5,I5,N5),0)</f>
         <v>7</v>
       </c>
-      <c r="P5" s="4" t="str">
+      <c r="P5" s="3" t="str">
         <f aca="false">IF(O5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1452,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
@@ -1469,7 +1561,7 @@
       <c r="K6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="M6" s="4" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="0" t="n">
@@ -1480,7 +1572,7 @@
         <f aca="false">ROUND(AVERAGE(C6,E6,G6,I6,N6),0)</f>
         <v>7</v>
       </c>
-      <c r="P6" s="4" t="str">
+      <c r="P6" s="3" t="str">
         <f aca="false">IF(O6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1490,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -1518,7 +1610,7 @@
         <f aca="false">ROUND(AVERAGE(C7,E7,G7,I7,N7),0)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="4" t="str">
+      <c r="P7" s="3" t="str">
         <f aca="false">IF(O7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1528,7 +1620,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6</v>
@@ -1556,7 +1648,7 @@
         <f aca="false">ROUND(AVERAGE(C8,E8,G8,I8,N8),0)</f>
         <v>5</v>
       </c>
-      <c r="P8" s="4" t="str">
+      <c r="P8" s="3" t="str">
         <f aca="false">IF(O8&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1566,7 +1658,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>5</v>
@@ -1594,7 +1686,7 @@
         <f aca="false">ROUND(AVERAGE(C9,E9,G9,I9,N9),0)</f>
         <v>5</v>
       </c>
-      <c r="P9" s="4" t="str">
+      <c r="P9" s="3" t="str">
         <f aca="false">IF(O9&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1604,12 +1696,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="4" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
@@ -1618,7 +1710,7 @@
       <c r="G10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="4" t="n">
         <v>8</v>
       </c>
       <c r="J10" s="2" t="n">
@@ -1638,7 +1730,7 @@
         <f aca="false">ROUND(AVERAGE(C10,E10,G10,I10,N10),0)</f>
         <v>9</v>
       </c>
-      <c r="P10" s="4" t="str">
+      <c r="P10" s="3" t="str">
         <f aca="false">IF(O10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1648,7 +1740,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>8</v>
@@ -1677,7 +1769,7 @@
         <f aca="false">ROUND(AVERAGE(C11,E11,G11,I11,N11),0)</f>
         <v>5</v>
       </c>
-      <c r="P11" s="4" t="str">
+      <c r="P11" s="3" t="str">
         <f aca="false">IF(O11&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1687,7 +1779,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -1715,7 +1807,7 @@
         <f aca="false">ROUND(AVERAGE(C12,E12,G12,I12,N12),0)</f>
         <v>1</v>
       </c>
-      <c r="P12" s="4" t="str">
+      <c r="P12" s="3" t="str">
         <f aca="false">IF(O12&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1725,7 +1817,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -1753,7 +1845,7 @@
         <f aca="false">ROUND(AVERAGE(C13,E13,G13,I13,N13),0)</f>
         <v>5</v>
       </c>
-      <c r="P13" s="4" t="str">
+      <c r="P13" s="3" t="str">
         <f aca="false">IF(O13&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1763,7 +1855,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -1791,7 +1883,7 @@
         <f aca="false">ROUND(AVERAGE(C14,E14,G14,I14,N14),0)</f>
         <v>1</v>
       </c>
-      <c r="P14" s="4" t="str">
+      <c r="P14" s="3" t="str">
         <f aca="false">IF(O14&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1801,7 +1893,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>8</v>
@@ -1829,7 +1921,7 @@
         <f aca="false">ROUND(AVERAGE(C15,E15,G15,I15,N15),0)</f>
         <v>2</v>
       </c>
-      <c r="P15" s="4" t="str">
+      <c r="P15" s="3" t="str">
         <f aca="false">IF(O15&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1839,7 +1931,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -1867,7 +1959,7 @@
         <f aca="false">ROUND(AVERAGE(C16,E16,G16,I16,N16),0)</f>
         <v>1</v>
       </c>
-      <c r="P16" s="4" t="str">
+      <c r="P16" s="3" t="str">
         <f aca="false">IF(O16&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1877,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>9</v>
@@ -1905,7 +1997,7 @@
         <f aca="false">ROUND(AVERAGE(C17,E17,G17,I17,N17),0)</f>
         <v>8</v>
       </c>
-      <c r="P17" s="4" t="str">
+      <c r="P17" s="3" t="str">
         <f aca="false">IF(O17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1942,7 +2034,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.22"/>
@@ -1953,22 +2045,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -1990,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -2004,16 +2096,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -2027,16 +2119,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -2050,16 +2142,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -2078,13 +2170,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
@@ -2092,13 +2184,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -2109,7 +2201,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -2123,16 +2215,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>6</v>
@@ -2151,13 +2243,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5</v>
@@ -2168,16 +2260,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7</v>
@@ -2196,13 +2288,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7</v>
@@ -2210,13 +2302,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>4</v>
@@ -2224,13 +2316,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>4</v>
@@ -2238,13 +2330,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>2</v>
@@ -2255,16 +2347,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -2278,16 +2370,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -2301,7 +2393,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -2315,16 +2407,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>3</v>
@@ -2338,16 +2430,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -2361,16 +2453,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -2384,7 +2476,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -2398,16 +2490,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -2426,13 +2518,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>8</v>
@@ -2460,7 +2552,7 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
@@ -2474,22 +2566,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -2511,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -2525,16 +2617,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8.7</v>
@@ -2548,16 +2640,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>5.8</v>
@@ -2576,13 +2668,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2.9</v>
@@ -2593,16 +2685,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6.9</v>
@@ -2616,7 +2708,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -2630,16 +2722,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>5.9</v>
@@ -2658,13 +2750,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2</v>
@@ -2672,13 +2764,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0.9</v>
@@ -2689,16 +2781,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2.8</v>
@@ -2717,13 +2809,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0.9</v>
@@ -2734,16 +2826,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0.9</v>
@@ -2757,16 +2849,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7.8</v>
@@ -2785,13 +2877,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>5.7</v>
@@ -2802,7 +2894,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -2816,7 +2908,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -2830,16 +2922,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
@@ -2853,16 +2945,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -2876,7 +2968,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -2890,16 +2982,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -2918,13 +3010,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -2932,13 +3024,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>6.9</v>
@@ -2946,13 +3038,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>4.9</v>
@@ -2960,13 +3052,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>3</v>
@@ -2974,13 +3066,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0.9</v>
@@ -3009,7 +3101,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -3022,22 +3114,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -3059,7 +3151,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -3073,16 +3165,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -3101,13 +3193,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -3118,16 +3210,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>9</v>
@@ -3141,16 +3233,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -3169,13 +3261,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -3186,7 +3278,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -3200,16 +3292,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -3223,16 +3315,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -3251,13 +3343,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -3268,16 +3360,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -3291,16 +3383,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -3319,13 +3411,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>3</v>
@@ -3333,13 +3425,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>3</v>
@@ -3347,13 +3439,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2</v>
@@ -3361,13 +3453,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2</v>
@@ -3378,7 +3470,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -3392,16 +3484,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -3415,16 +3507,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -3438,7 +3530,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -3452,7 +3544,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -3466,16 +3558,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -3509,7 +3601,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -3523,22 +3615,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -3560,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -3574,16 +3666,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -3602,13 +3694,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -3619,16 +3711,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -3642,16 +3734,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -3665,7 +3757,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -3679,16 +3771,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>3</v>
@@ -3702,16 +3794,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -3725,16 +3817,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
@@ -3748,16 +3840,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -3776,13 +3868,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>3</v>
@@ -3790,13 +3882,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>3</v>
@@ -3804,13 +3896,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2</v>
@@ -3821,7 +3913,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -3835,16 +3927,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7</v>
@@ -3858,16 +3950,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -3881,7 +3973,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -3895,7 +3987,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -3909,16 +4001,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>6</v>
@@ -3952,7 +4044,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -3965,22 +4057,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3988,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -4002,7 +4094,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -4016,16 +4108,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -4039,16 +4131,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -4062,16 +4154,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>4</v>
@@ -4085,16 +4177,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2</v>
@@ -4108,16 +4200,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -4131,7 +4223,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -4145,16 +4237,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>210</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -4168,16 +4260,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>4</v>
@@ -4196,13 +4288,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
@@ -4213,7 +4305,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -4227,16 +4319,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>6</v>
@@ -4250,7 +4342,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -4264,7 +4356,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -4278,7 +4370,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -4292,16 +4384,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>6</v>
@@ -4341,10 +4433,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
@@ -4364,183 +4456,183 @@
         <v>45750</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>8</v>
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">C2+D2</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>6</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">C3+D3</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">C4+D4</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E5" s="0" t="n">
         <f aca="false">C5+D5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">C6+D6</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">C7+D7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">C8+D8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">C9+D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">C10+D10</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">C11+D11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="E12" s="0" t="n">
         <f aca="false">C12+D12</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -4552,10 +4644,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -4567,10 +4659,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -4582,32 +4674,32 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">C16+D16</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">C17+D17</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/inasistencias-4b-tc/alumnos-4b-tc.xlsx
+++ b/inasistencias-4b-tc/alumnos-4b-tc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="234">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">obs</t>
   </si>
   <si>
+    <t xml:space="preserve">Asistencia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ivan</t>
   </si>
   <si>
@@ -56,6 +59,15 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oftalmologo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ivan Benjamín</t>
   </si>
   <si>
@@ -86,6 +98,9 @@
     <t xml:space="preserve">49898249@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">medico</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ulises Nicolas</t>
   </si>
   <si>
@@ -113,6 +128,9 @@
     <t xml:space="preserve">50066744@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">tiene medico</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rafael Bautista</t>
   </si>
   <si>
@@ -158,6 +176,12 @@
     <t xml:space="preserve">95429143@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dni</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enzo Agustín</t>
   </si>
   <si>
@@ -167,9 +191,6 @@
     <t xml:space="preserve">49837749@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Tarde 12:40</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ramiro Ezequiel</t>
   </si>
   <si>
@@ -179,9 +200,6 @@
     <t xml:space="preserve">49676837@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Tade 12:45</t>
-  </si>
-  <si>
     <t xml:space="preserve">Benjamin</t>
   </si>
   <si>
@@ -198,6 +216,15 @@
   </si>
   <si>
     <t xml:space="preserve">matruia81@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media falta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarde</t>
   </si>
   <si>
     <t xml:space="preserve">1-atomo</t>
@@ -708,10 +735,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -785,7 +813,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -802,6 +830,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -815,7 +847,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="1">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -828,28 +860,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -922,19 +932,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="31.19"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="6" min="5" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="11.07"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="9" min="8" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,25 +973,88 @@
       <c r="G1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>0.541666666666667</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,19 +1062,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,19 +1103,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,19 +1144,43 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,19 +1188,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,19 +1229,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,19 +1270,43 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,19 +1314,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,19 +1355,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,19 +1396,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1165,19 +1437,43 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,19 +1481,49 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0.527777777777778</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="3" t="n">
+        <v>0.513888888888889</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,22 +1531,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0.527777777777778</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,22 +1575,46 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="3" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>50</v>
+      <c r="R15" s="3" t="n">
+        <v>0.534722222222222</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,19 +1622,40 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,29 +1663,115 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="0" t="s">
+        <v>63</v>
+      </c>
       <c r="E18" s="0" t="n">
         <f aca="false">COUNTIF(E2:E17,"P")</f>
         <v>14</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">COUNTIF(F2:F17,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">COUNTIF(H2:H17,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I17,"P")</f>
+        <v>11</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">COUNTIF(K2:K17,"P")</f>
         <v>14</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">COUNTIF(L2:L17,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">COUNTIF(N2:N17,"P")</f>
+        <v>11</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <f aca="false">COUNTIF(P2:P17,"P")</f>
+        <v>15</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <f aca="false">COUNTIF(Q2:Q17,"P")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E17,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F17,"M")</f>
+        <v>2</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I17,"M")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E17,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F17,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I17,"T")</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1314,14 +1792,15 @@
   </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="9.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,46 +1811,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -1403,11 +1882,11 @@
         <f aca="false">ROUND(K2+M2/2,0)</f>
         <v>2</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C2,E2,G2,I2,N2),0)</f>
         <v>1</v>
       </c>
-      <c r="P2" s="3" t="str">
+      <c r="P2" s="4" t="str">
         <f aca="false">IF(O2&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1417,27 +1896,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>9</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <v>8</v>
       </c>
       <c r="J3" s="2" t="n">
@@ -1453,11 +1932,11 @@
         <f aca="false">ROUND(K3+M3/2,0)</f>
         <v>2</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C3,E3,G3,I3,N3),0)</f>
         <v>6</v>
       </c>
-      <c r="P3" s="3" t="str">
+      <c r="P3" s="4" t="str">
         <f aca="false">IF(O3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1467,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>8</v>
@@ -1492,11 +1971,11 @@
         <f aca="false">ROUND(K4+M4/2,0)</f>
         <v>5</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C4,E4,G4,I4,N4),0)</f>
         <v>8</v>
       </c>
-      <c r="P4" s="3" t="str">
+      <c r="P4" s="4" t="str">
         <f aca="false">IF(O4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1506,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>10</v>
@@ -1530,11 +2009,11 @@
         <f aca="false">ROUND(K5+M5/2,0)</f>
         <v>6</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C5,E5,G5,I5,N5),0)</f>
         <v>7</v>
       </c>
-      <c r="P5" s="3" t="str">
+      <c r="P5" s="4" t="str">
         <f aca="false">IF(O5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1544,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
@@ -1561,18 +2040,18 @@
       <c r="K6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="5" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="0" t="n">
         <f aca="false">ROUND(K6+M6/2,0)</f>
         <v>7</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C6,E6,G6,I6,N6),0)</f>
         <v>7</v>
       </c>
-      <c r="P6" s="3" t="str">
+      <c r="P6" s="4" t="str">
         <f aca="false">IF(O6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1582,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -1606,11 +2085,11 @@
         <f aca="false">ROUND(K7+M7/2,0)</f>
         <v>2</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C7,E7,G7,I7,N7),0)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="3" t="str">
+      <c r="P7" s="4" t="str">
         <f aca="false">IF(O7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1620,7 +2099,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6</v>
@@ -1644,11 +2123,11 @@
         <f aca="false">ROUND(K8+M8/2,0)</f>
         <v>4</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="O8" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C8,E8,G8,I8,N8),0)</f>
         <v>5</v>
       </c>
-      <c r="P8" s="3" t="str">
+      <c r="P8" s="4" t="str">
         <f aca="false">IF(O8&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1658,7 +2137,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>5</v>
@@ -1682,11 +2161,11 @@
         <f aca="false">ROUND(K9+M9/2,0)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C9,E9,G9,I9,N9),0)</f>
         <v>5</v>
       </c>
-      <c r="P9" s="3" t="str">
+      <c r="P9" s="4" t="str">
         <f aca="false">IF(O9&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1696,12 +2175,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
@@ -1710,7 +2189,7 @@
       <c r="G10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="5" t="n">
         <v>8</v>
       </c>
       <c r="J10" s="2" t="n">
@@ -1726,11 +2205,11 @@
         <f aca="false">ROUND(K10+M10/2,0)</f>
         <v>10</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C10,E10,G10,I10,N10),0)</f>
         <v>9</v>
       </c>
-      <c r="P10" s="3" t="str">
+      <c r="P10" s="4" t="str">
         <f aca="false">IF(O10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1740,7 +2219,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>8</v>
@@ -1765,11 +2244,11 @@
         <f aca="false">ROUND(K11+M11/2,0)</f>
         <v>4</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C11,E11,G11,I11,N11),0)</f>
         <v>5</v>
       </c>
-      <c r="P11" s="3" t="str">
+      <c r="P11" s="4" t="str">
         <f aca="false">IF(O11&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1779,7 +2258,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -1803,11 +2282,11 @@
         <f aca="false">ROUND(K12+M12/2,0)</f>
         <v>3</v>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="O12" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C12,E12,G12,I12,N12),0)</f>
         <v>1</v>
       </c>
-      <c r="P12" s="3" t="str">
+      <c r="P12" s="4" t="str">
         <f aca="false">IF(O12&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1817,7 +2296,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -1841,11 +2320,11 @@
         <f aca="false">ROUND(K13+M13/2,0)</f>
         <v>6</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="O13" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C13,E13,G13,I13,N13),0)</f>
         <v>5</v>
       </c>
-      <c r="P13" s="3" t="str">
+      <c r="P13" s="4" t="str">
         <f aca="false">IF(O13&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1855,7 +2334,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -1879,11 +2358,11 @@
         <f aca="false">ROUND(K14+M14/2,0)</f>
         <v>1</v>
       </c>
-      <c r="O14" s="3" t="n">
+      <c r="O14" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,G14,I14,N14),0)</f>
         <v>1</v>
       </c>
-      <c r="P14" s="3" t="str">
+      <c r="P14" s="4" t="str">
         <f aca="false">IF(O14&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1893,7 +2372,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>8</v>
@@ -1917,11 +2396,11 @@
         <f aca="false">ROUND(K15+M15/2,0)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="3" t="n">
+      <c r="O15" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C15,E15,G15,I15,N15),0)</f>
         <v>2</v>
       </c>
-      <c r="P15" s="3" t="str">
+      <c r="P15" s="4" t="str">
         <f aca="false">IF(O15&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1931,7 +2410,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -1955,11 +2434,11 @@
         <f aca="false">ROUND(K16+M16/2,0)</f>
         <v>2</v>
       </c>
-      <c r="O16" s="3" t="n">
+      <c r="O16" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C16,E16,G16,I16,N16),0)</f>
         <v>1</v>
       </c>
-      <c r="P16" s="3" t="str">
+      <c r="P16" s="4" t="str">
         <f aca="false">IF(O16&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1969,7 +2448,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>9</v>
@@ -1993,11 +2472,11 @@
         <f aca="false">ROUND(K17+M17/2,0)</f>
         <v>7</v>
       </c>
-      <c r="O17" s="3" t="n">
+      <c r="O17" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C17,E17,G17,I17,N17),0)</f>
         <v>8</v>
       </c>
-      <c r="P17" s="3" t="str">
+      <c r="P17" s="4" t="str">
         <f aca="false">IF(O17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2030,11 +2509,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.22"/>
@@ -2045,22 +2524,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -2082,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -2096,16 +2575,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -2119,16 +2598,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -2142,16 +2621,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -2170,13 +2649,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
@@ -2184,13 +2663,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -2201,7 +2680,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -2215,16 +2694,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>6</v>
@@ -2243,13 +2722,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5</v>
@@ -2260,16 +2739,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7</v>
@@ -2288,13 +2767,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7</v>
@@ -2302,13 +2781,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>4</v>
@@ -2316,13 +2795,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>4</v>
@@ -2330,13 +2809,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>2</v>
@@ -2347,16 +2826,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -2370,16 +2849,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -2393,7 +2872,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -2407,16 +2886,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>3</v>
@@ -2430,16 +2909,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -2453,16 +2932,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -2476,7 +2955,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -2490,16 +2969,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -2518,13 +2997,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>8</v>
@@ -2548,11 +3027,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
@@ -2566,22 +3045,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -2603,7 +3082,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -2617,16 +3096,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8.7</v>
@@ -2640,16 +3119,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>5.8</v>
@@ -2668,13 +3147,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2.9</v>
@@ -2685,16 +3164,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6.9</v>
@@ -2708,7 +3187,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -2722,16 +3201,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>5.9</v>
@@ -2750,13 +3229,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2</v>
@@ -2764,13 +3243,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0.9</v>
@@ -2781,16 +3260,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2.8</v>
@@ -2809,13 +3288,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0.9</v>
@@ -2826,16 +3305,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0.9</v>
@@ -2849,16 +3328,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7.8</v>
@@ -2877,13 +3356,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>5.7</v>
@@ -2894,7 +3373,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -2908,7 +3387,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -2922,16 +3401,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
@@ -2945,16 +3424,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -2968,7 +3447,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -2982,16 +3461,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -3010,13 +3489,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -3024,13 +3503,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>6.9</v>
@@ -3038,13 +3517,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>4.9</v>
@@ -3052,13 +3531,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>3</v>
@@ -3066,13 +3545,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0.9</v>
@@ -3097,11 +3576,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -3114,22 +3593,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3137,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -3151,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -3165,16 +3644,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -3193,13 +3672,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -3210,16 +3689,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>9</v>
@@ -3233,16 +3712,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -3261,13 +3740,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -3278,7 +3757,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -3292,16 +3771,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -3315,16 +3794,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -3343,13 +3822,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -3360,16 +3839,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -3383,16 +3862,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -3411,13 +3890,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>3</v>
@@ -3425,13 +3904,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>3</v>
@@ -3439,13 +3918,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2</v>
@@ -3453,13 +3932,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2</v>
@@ -3470,7 +3949,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -3484,16 +3963,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -3507,16 +3986,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -3530,7 +4009,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -3544,7 +4023,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -3558,16 +4037,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -3597,11 +4076,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -3615,22 +4094,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -3652,7 +4131,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -3666,16 +4145,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -3694,13 +4173,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -3711,16 +4190,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -3734,16 +4213,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -3757,7 +4236,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -3771,16 +4250,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>3</v>
@@ -3794,16 +4273,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -3817,16 +4296,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
@@ -3840,16 +4319,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -3868,13 +4347,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>3</v>
@@ -3882,13 +4361,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>3</v>
@@ -3896,13 +4375,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2</v>
@@ -3913,7 +4392,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -3927,16 +4406,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7</v>
@@ -3950,16 +4429,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -3973,7 +4452,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -3987,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -4001,16 +4480,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>6</v>
@@ -4040,11 +4519,11 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -4057,22 +4536,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -4094,7 +4573,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -4108,16 +4587,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -4131,16 +4610,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -4154,16 +4633,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>4</v>
@@ -4177,16 +4656,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2</v>
@@ -4200,16 +4679,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -4223,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -4237,16 +4716,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -4260,16 +4739,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>4</v>
@@ -4288,13 +4767,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
@@ -4305,7 +4784,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -4319,16 +4798,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>6</v>
@@ -4342,7 +4821,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -4356,7 +4835,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -4370,7 +4849,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -4384,16 +4863,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>6</v>
@@ -4430,13 +4909,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
@@ -4456,183 +4935,198 @@
         <v>45750</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45813</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">C2+D2</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">C3+D3</f>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">C4+D4</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="E5" s="0" t="n">
         <f aca="false">C5+D5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">C6+D6</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">C7+D7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">C8+D8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">C9+D9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">C10+D10</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">C11+D11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E12" s="0" t="n">
         <f aca="false">C12+D12</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -4644,10 +5138,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -4656,13 +5150,16 @@
         <f aca="false">C14+D14</f>
         <v>0</v>
       </c>
+      <c r="F14" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -4671,35 +5168,38 @@
         <f aca="false">C15+D15</f>
         <v>0</v>
       </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">C16+D16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">C17+D17</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/inasistencias-4b-tc/alumnos-4b-tc.xlsx
+++ b/inasistencias-4b-tc/alumnos-4b-tc.xlsx
@@ -16,6 +16,7 @@
     <sheet name="4-cap 4-5-6" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="5-thevenin" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="positivos" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Evaluacion" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="254">
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -44,231 +48,252 @@
     <t xml:space="preserve">obs</t>
   </si>
   <si>
+    <t xml:space="preserve">enfermedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total Asis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nota Asis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUÑA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50030377@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oftalmologo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan Benjamín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUERRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49627703@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matías Andrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTAMIRANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matias2511.altamirano@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asai Nitzana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABALLERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49898249@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulises Nicolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CETERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50276187@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiago Benjamín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHIAPPARO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49419297@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazarena Valentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corbera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50066744@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiene medico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Bautista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIMÉNEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50156642@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Nahuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIDANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49735065@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiago Elian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUÑEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49589492@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venus Yazmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRÍGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49626775@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grecia De Los Angeles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSALES BASTIDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95429143@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enzo Agustín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASSARA SOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49837749@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramiro Ezequiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49676837@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEVEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47869497@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matruia81@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media falta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-atomo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rcup 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-coulomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recup 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-cap 2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recup 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-cap 4–6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recup 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-Thevenin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recup 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota 5 + pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medio term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valoracion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ealuacion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asistencia</t>
   </si>
   <si>
-    <t xml:space="preserve">Ivan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACUÑA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50030377@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oftalmologo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivan Benjamín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUERRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49627703@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Andrés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTAMIRANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matias2511.altamirano@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asai Nitzana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABALLERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49898249@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulises Nicolas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CETERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50276187@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiago Benjamín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHIAPPARO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49419297@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nazarena Valentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corbera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50066744@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tiene medico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafael Bautista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIMÉNEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50156642@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Nahuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIDANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49735065@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiago Elian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUÑEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49589492@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venus Yazmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRÍGUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49626775@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grecia De Los Angeles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROSALES BASTIDAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95429143@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzo Agustín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TASSARA SOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49837749@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramiro Ezequiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49676837@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benjamin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEVEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47869497@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matruia81@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">media falta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-atomo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rcup 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-coulomb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recup 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-cap 2-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recup 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-cap 4–6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recup 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-Thevenin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recup 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nota 5 + pos</t>
-  </si>
-  <si>
     <t xml:space="preserve">promedio</t>
   </si>
   <si>
-    <t xml:space="preserve">valoracion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Finalizado</t>
   </si>
   <si>
@@ -729,6 +754,42 @@
   </si>
   <si>
     <t xml:space="preserve">15 minutos 46 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 minutos 16 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 minutos 46 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 5 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 8 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 14 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 9 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 15 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 4 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 13 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 minutos 25 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 11 minutos</t>
   </si>
 </sst>
 </file>
@@ -765,7 +826,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,13 +839,26 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC107"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -813,7 +887,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -834,7 +908,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -847,7 +941,21 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF006600"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -863,6 +971,21 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF232629"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -875,7 +998,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -909,7 +1032,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC107"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -932,13 +1055,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
+      <selection pane="topLeft" activeCell="Z17" activeCellId="0" sqref="Z17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -948,829 +1071,1311 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="11.07"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="9" min="8" style="0" width="8.62"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="11.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.36"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="14" min="11" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="11.36"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="24" min="16" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="V1" s="3"/>
+      <c r="Z1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="F2" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="n">
+      <c r="G2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>45799</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>45813</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2" t="n">
+      <c r="J2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>45820</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="L2" s="2" t="n">
         <v>45827</v>
       </c>
-      <c r="M1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="2" t="n">
+      <c r="M2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="2" t="n">
         <v>45834</v>
       </c>
-      <c r="O1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="2" t="n">
+      <c r="O2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2" t="n">
         <v>45841</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="Q2" s="2" t="n">
         <v>45848</v>
       </c>
-      <c r="R1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="S2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="T2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="U2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="V2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="X2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>0.541666666666667</v>
+      <c r="Y2" s="2" t="n">
+        <v>45855</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="O3" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="P3" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <f aca="false">COUNTIF(E3:Q3,"E")</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:Q3,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:Q3,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:Q3,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <f aca="false">ROUND(T3+U3/2+V3/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <f aca="false">ROUND(W3*10/$AA$1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>0.520833333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <f aca="false">COUNTIF(E4:Q4,"E")</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:Q4,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:Q4,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:Q4,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <f aca="false">ROUND(T4+U4/2+V4/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <f aca="false">ROUND(W4*10/$AA$1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="Y4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>9</v>
+      <c r="Z4" s="3" t="n">
+        <v>0.513888888888889</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <f aca="false">COUNTIF(E5:Q5,"E")</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:Q5,"P")</f>
         <v>9</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="U5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:Q5,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:Q5,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <f aca="false">ROUND(T5+U5/2+V5/4,0)</f>
         <v>9</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="0" t="s">
+      <c r="X5" s="5" t="n">
+        <f aca="false">ROUND(W5*10/$AA$1,0)</f>
         <v>10</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>9</v>
+      <c r="Y5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <f aca="false">COUNTIF(E6:Q6,"E")</f>
+        <v>1</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:Q6,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:Q6,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:Q6,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <f aca="false">ROUND(T6+U6/2+V6/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <f aca="false">ROUND(W6*10/$AA$1,0)</f>
         <v>9</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>9</v>
+      <c r="Y6" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <f aca="false">COUNTIF(E7:Q7,"E")</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:Q7,"P")</f>
         <v>9</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="U7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:Q7,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:Q7,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <f aca="false">ROUND(T7+U7/2+V7/4,0)</f>
         <v>9</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>9</v>
+      <c r="X7" s="5" t="n">
+        <f aca="false">ROUND(W7*10/$AA$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <f aca="false">COUNTIF(E8:Q8,"E")</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:Q8,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:Q8,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:Q8,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <f aca="false">ROUND(T8+U8/2+V8/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <f aca="false">ROUND(W8*10/$AA$1,0)</f>
         <v>9</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>9</v>
+      <c r="Y8" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <f aca="false">COUNTIF(E9:Q9,"E")</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:Q9,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:Q9,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:Q9,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <f aca="false">ROUND(T9+U9/2+V9/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="X9" s="5" t="n">
+        <f aca="false">ROUND(W9*10/$AA$1,0)</f>
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>9</v>
+      <c r="Y9" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <f aca="false">COUNTIF(E10:Q10,"E")</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:Q10,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:Q10,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:Q10,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <f aca="false">ROUND(T10+U10/2+V10/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="X10" s="5" t="n">
+        <f aca="false">ROUND(W10*10/$AA$1,0)</f>
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>9</v>
+      <c r="Y10" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <f aca="false">COUNTIF(E11:Q11,"E")</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:Q11,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:Q11,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:Q11,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <f aca="false">ROUND(T11+U11/2+V11/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <f aca="false">ROUND(W11*10/$AA$1,0)</f>
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>9</v>
+      <c r="Y11" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <f aca="false">COUNTIF(E12:Q12,"E")</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:Q12,"P")</f>
         <v>9</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="U12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:Q12,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:Q12,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <f aca="false">ROUND(T12+U12/2+V12/4,0)</f>
         <v>9</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>16</v>
+      <c r="X12" s="5" t="n">
+        <f aca="false">ROUND(W12*10/$AA$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>0.527777777777778</v>
+        <v>0.53125</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="R13" s="3" t="n">
-        <v>0.513888888888889</v>
+        <v>23</v>
+      </c>
+      <c r="S13" s="4" t="n">
+        <f aca="false">COUNTIF(E13:Q13,"E")</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:Q13,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:Q13,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:Q13,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <f aca="false">ROUND(T13+U13/2+V13/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="X13" s="5" t="n">
+        <f aca="false">ROUND(W13*10/$AA$1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z13" s="3" t="n">
+        <v>0.541666666666667</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>0.527777777777778</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>0.513888888888889</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <f aca="false">COUNTIF(E14:Q14,"E")</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:Q14,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:Q14,"M")</f>
+        <v>2</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:Q14,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <f aca="false">ROUND(T14+U14/2+V14/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <f aca="false">ROUND(W14*10/$AA$1,0)</f>
         <v>9</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>0.527777777777778</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>9</v>
+      <c r="Y14" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0.527777777777778</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <f aca="false">COUNTIF(E15:Q15,"E")</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:Q15,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:Q15,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:Q15,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <f aca="false">ROUND(T15+U15/2+V15/4,0)</f>
         <v>9</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="3" t="n">
-        <v>0.534722222222222</v>
+      <c r="X15" s="5" t="n">
+        <f aca="false">ROUND(W15*10/$AA$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0.53125</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <f aca="false">COUNTIF(E16:Q16,"E")</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:Q16,"P")</f>
+        <v>4</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:Q16,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:Q16,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <f aca="false">ROUND(T16+U16/2+V16/4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="X16" s="5" t="n">
+        <f aca="false">ROUND(W16*10/$AA$1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <f aca="false">COUNTIF(E17:Q17,"E")</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <f aca="false">COUNTIF(E17:Q17,"P")</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <f aca="false">COUNTIF(E17:Q17,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <f aca="false">COUNTIF(E17:Q17,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <f aca="false">ROUND(T17+U17/2+V17/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <f aca="false">ROUND(W17*10/$AA$1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <f aca="false">COUNTIF(E18:Q18,"E")</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <f aca="false">COUNTIF(E18:Q18,"P")</f>
         <v>9</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="U18" s="0" t="n">
+        <f aca="false">COUNTIF(E18:Q18,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <f aca="false">COUNTIF(E18:Q18,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <f aca="false">ROUND(T18+U18/2+V18/4,0)</f>
         <v>9</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <f aca="false">COUNTIF(E2:E17,"P")</f>
-        <v>14</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <f aca="false">COUNTIF(F2:F17,"P")</f>
-        <v>13</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <f aca="false">COUNTIF(H2:H17,"P")</f>
-        <v>13</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <f aca="false">COUNTIF(I2:I17,"P")</f>
-        <v>11</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <f aca="false">COUNTIF(K2:K17,"P")</f>
-        <v>14</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <f aca="false">COUNTIF(L2:L17,"P")</f>
-        <v>14</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <f aca="false">COUNTIF(N2:N17,"P")</f>
-        <v>11</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <f aca="false">COUNTIF(P2:P17,"P")</f>
-        <v>15</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <f aca="false">COUNTIF(Q2:Q17,"P")</f>
-        <v>11</v>
+      <c r="X18" s="5" t="n">
+        <f aca="false">ROUND(W18*10/$AA$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="E19" s="0" t="n">
-        <f aca="false">COUNTIF(E2:E17,"M")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(E3:E18,"P")</f>
+        <v>14</v>
       </c>
       <c r="F19" s="0" t="n">
-        <f aca="false">COUNTIF(F2:F17,"M")</f>
-        <v>2</v>
+        <f aca="false">COUNTIF(F3:F18,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">COUNTIF(H3:H18,"P")</f>
+        <v>13</v>
       </c>
       <c r="I19" s="0" t="n">
-        <f aca="false">COUNTIF(I2:I17,"M")</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(I3:I18,"P")</f>
+        <v>11</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">COUNTIF(K3:K18,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">COUNTIF(L3:L18,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <f aca="false">COUNTIF(N3:N18,"P")</f>
+        <v>11</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <f aca="false">COUNTIF(P3:P18,"P")</f>
+        <v>15</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <f aca="false">COUNTIF(Q3:Q18,"P")</f>
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E20" s="0" t="n">
-        <f aca="false">COUNTIF(E2:E17,"T")</f>
+        <f aca="false">COUNTIF(E3:E18,"M")</f>
         <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <f aca="false">COUNTIF(F2:F17,"T")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(F3:F18,"M")</f>
+        <v>2</v>
       </c>
       <c r="I20" s="0" t="n">
-        <f aca="false">COUNTIF(I2:I17,"T")</f>
+        <f aca="false">COUNTIF(I3:I18,"M")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">COUNTIF(E3:E18,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">COUNTIF(F3:F18,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">COUNTIF(I3:I18,"T")</f>
         <v>1</v>
       </c>
     </row>
@@ -1790,75 +2395,84 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="3" style="0" width="9.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -1890,33 +2504,43 @@
         <f aca="false">IF(O2&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q2" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="S2" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q2:R2,O2),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="n">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="8" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="8" t="n">
         <v>9</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="8" t="n">
         <v>8</v>
       </c>
       <c r="J3" s="2" t="n">
@@ -1940,13 +2564,23 @@
         <f aca="false">IF(O3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="S3" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q3:R3,O3),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>8</v>
@@ -1964,28 +2598,38 @@
       <c r="K4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M4" s="0" t="n">
-        <v>8</v>
+      <c r="M4" s="9" t="n">
+        <v>13</v>
       </c>
       <c r="N4" s="0" t="n">
         <f aca="false">ROUND(K4+M4/2,0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O4" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C4,E4,G4,I4,N4),0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P4" s="4" t="str">
         <f aca="false">IF(O4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q4" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S4" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q4:R4,O4),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>10</v>
@@ -2002,28 +2646,38 @@
       <c r="K5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M5" s="0" t="n">
-        <v>0</v>
+      <c r="M5" s="9" t="n">
+        <v>7</v>
       </c>
       <c r="N5" s="0" t="n">
         <f aca="false">ROUND(K5+M5/2,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O5" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C5,E5,G5,I5,N5),0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P5" s="4" t="str">
         <f aca="false">IF(O5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q5" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="S5" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q5:R5,O5),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
@@ -2040,12 +2694,12 @@
       <c r="K6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M6" s="5" t="n">
-        <v>6</v>
+      <c r="M6" s="9" t="n">
+        <v>10</v>
       </c>
       <c r="N6" s="0" t="n">
         <f aca="false">ROUND(K6+M6/2,0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O6" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C6,E6,G6,I6,N6),0)</f>
@@ -2055,25 +2709,44 @@
         <f aca="false">IF(O6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q6" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S6" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q6:R6,O6),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1</v>
+      <c r="E7" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>45848</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>45849</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>45849</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>2</v>
@@ -2087,41 +2760,63 @@
       </c>
       <c r="O7" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C7,E7,G7,I7,N7),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" s="4" t="str">
         <f aca="false">IF(O7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="S7" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q7:R7,O7),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="E8" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>45848</v>
+      </c>
+      <c r="G8" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="H8" s="10" t="n">
+        <v>45849</v>
+      </c>
+      <c r="I8" s="9" t="n">
         <v>4</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <v>45849</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="10" t="n">
+        <v>45849</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="0" t="n">
         <f aca="false">ROUND(K8+M8/2,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C8,E8,G8,I8,N8),0)</f>
@@ -2131,19 +2826,32 @@
         <f aca="false">IF(O8&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q8" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="S8" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q8:R8,O8),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>2</v>
+      <c r="E9" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>45855</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>10</v>
@@ -2163,24 +2871,34 @@
       </c>
       <c r="O9" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C9,E9,G9,I9,N9),0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P9" s="4" t="str">
         <f aca="false">IF(O9&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q9" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="S9" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q9:R9,O9),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="8" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
@@ -2189,7 +2907,7 @@
       <c r="G10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="8" t="n">
         <v>8</v>
       </c>
       <c r="J10" s="2" t="n">
@@ -2198,12 +2916,12 @@
       <c r="K10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="M10" s="0" t="n">
-        <v>4</v>
+      <c r="M10" s="9" t="n">
+        <v>11</v>
       </c>
       <c r="N10" s="0" t="n">
         <f aca="false">ROUND(K10+M10/2,0)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O10" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C10,E10,G10,I10,N10),0)</f>
@@ -2213,13 +2931,23 @@
         <f aca="false">IF(O10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q10" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S10" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q10:R10,O10),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>8</v>
@@ -2227,38 +2955,54 @@
       <c r="E11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>4</v>
+      <c r="G11" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>45849</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">ROUND(MAX(G12,E12),0)</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L11" s="10" t="n">
+        <v>45849</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N11" s="0" t="n">
         <f aca="false">ROUND(K11+M11/2,0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O11" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C11,E11,G11,I11,N11),0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P11" s="4" t="str">
         <f aca="false">IF(O11&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>TEA</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S11" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q11:R11,O11),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2266,11 +3010,17 @@
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>1</v>
+      <c r="G12" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>45849</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>45849</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
@@ -2284,19 +3034,29 @@
       </c>
       <c r="O12" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C12,E12,G12,I12,N12),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12" s="4" t="str">
         <f aca="false">IF(O12&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q12" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R12" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="S12" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q12:R12,O12),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -2328,13 +3088,23 @@
         <f aca="false">IF(O13&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q13" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R13" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="S13" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q13:R13,O13),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -2351,12 +3121,12 @@
       <c r="K14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M14" s="0" t="n">
-        <v>0</v>
+      <c r="M14" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="N14" s="0" t="n">
         <f aca="false">ROUND(K14+M14/2,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,G14,I14,N14),0)</f>
@@ -2366,13 +3136,23 @@
         <f aca="false">IF(O14&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S14" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q14:R14,O14),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>8</v>
@@ -2404,13 +3184,23 @@
         <f aca="false">IF(O15&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="S15" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q15:R15,O15),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -2442,13 +3232,23 @@
         <f aca="false">IF(O16&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q16:R16,O16),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>9</v>
@@ -2480,16 +3280,24 @@
         <f aca="false">IF(O17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="Q17" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R17" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S17" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(Q17:R17,O17),0)</f>
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O2:O17">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="S2:S17">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P17">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"TEP"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2509,11 +3317,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.22"/>
@@ -2521,25 +3329,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -2561,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -2575,16 +3383,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -2598,16 +3406,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -2621,16 +3429,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -2649,13 +3457,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
@@ -2663,13 +3471,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -2680,7 +3488,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -2694,16 +3502,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>6</v>
@@ -2722,13 +3530,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5</v>
@@ -2739,16 +3547,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7</v>
@@ -2767,13 +3575,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7</v>
@@ -2781,13 +3589,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>4</v>
@@ -2795,13 +3603,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>4</v>
@@ -2809,13 +3617,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>2</v>
@@ -2826,16 +3634,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -2849,16 +3657,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -2872,7 +3680,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -2886,16 +3694,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>3</v>
@@ -2909,16 +3717,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -2932,16 +3740,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -2955,7 +3763,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -2969,16 +3777,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -2997,13 +3805,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>8</v>
@@ -3031,7 +3839,7 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
@@ -3042,25 +3850,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -3082,7 +3890,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -3096,16 +3904,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8.7</v>
@@ -3119,16 +3927,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>5.8</v>
@@ -3147,13 +3955,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2.9</v>
@@ -3164,16 +3972,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6.9</v>
@@ -3187,7 +3995,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -3201,16 +4009,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>5.9</v>
@@ -3229,13 +4037,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2</v>
@@ -3243,13 +4051,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0.9</v>
@@ -3260,16 +4068,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2.8</v>
@@ -3288,13 +4096,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0.9</v>
@@ -3305,16 +4113,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0.9</v>
@@ -3328,16 +4136,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7.8</v>
@@ -3356,13 +4164,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>5.7</v>
@@ -3373,7 +4181,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -3387,7 +4195,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -3401,16 +4209,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
@@ -3424,16 +4232,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -3447,7 +4255,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -3461,16 +4269,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -3489,13 +4297,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -3503,13 +4311,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>6.9</v>
@@ -3517,13 +4325,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>4.9</v>
@@ -3531,13 +4339,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>3</v>
@@ -3545,13 +4353,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0.9</v>
@@ -3580,7 +4388,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -3590,25 +4398,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3616,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -3630,7 +4438,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -3644,16 +4452,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -3672,13 +4480,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -3689,16 +4497,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>9</v>
@@ -3712,16 +4520,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -3740,13 +4548,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -3757,7 +4565,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -3771,16 +4579,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -3794,16 +4602,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -3822,13 +4630,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -3839,16 +4647,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -3862,16 +4670,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -3890,13 +4698,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>3</v>
@@ -3904,13 +4712,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>3</v>
@@ -3918,13 +4726,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2</v>
@@ -3932,13 +4740,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2</v>
@@ -3949,7 +4757,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -3963,16 +4771,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -3986,16 +4794,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -4009,7 +4817,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -4023,7 +4831,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -4037,16 +4845,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -4080,7 +4888,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -4091,25 +4899,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -4131,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -4145,16 +4953,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -4173,13 +4981,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -4190,16 +4998,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -4213,16 +5021,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -4236,7 +5044,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -4250,16 +5058,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>3</v>
@@ -4273,16 +5081,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -4296,16 +5104,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
@@ -4319,16 +5127,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -4347,13 +5155,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>3</v>
@@ -4361,13 +5169,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>3</v>
@@ -4375,13 +5183,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2</v>
@@ -4392,7 +5200,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -4406,16 +5214,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7</v>
@@ -4429,16 +5237,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -4452,7 +5260,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -4466,7 +5274,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -4480,16 +5288,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>6</v>
@@ -4523,7 +5331,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -4533,25 +5341,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -4573,7 +5381,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -4587,16 +5395,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -4610,16 +5418,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -4633,16 +5441,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>4</v>
@@ -4656,16 +5464,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2</v>
@@ -4679,16 +5487,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -4702,7 +5510,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -4716,16 +5524,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -4739,16 +5547,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>4</v>
@@ -4767,13 +5575,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
@@ -4784,7 +5592,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -4798,16 +5606,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>6</v>
@@ -4821,7 +5629,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -4835,7 +5643,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -4849,7 +5657,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -4863,16 +5671,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>6</v>
@@ -4909,13 +5717,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
@@ -4923,10 +5731,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="n">
         <v>45736</v>
@@ -4935,21 +5743,43 @@
         <v>45750</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1" s="2" t="n">
         <v>45799</v>
       </c>
       <c r="G1" s="2" t="n">
+        <v>45806</v>
+      </c>
+      <c r="H1" s="2" t="n">
         <v>45813</v>
       </c>
+      <c r="I1" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -4957,6 +5787,18 @@
       <c r="E2" s="0" t="n">
         <f aca="false">C2+D2</f>
         <v>1</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,7 +5806,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -4979,22 +5821,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="n">
         <v>8</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">C4+D4</f>
         <v>8</v>
       </c>
+      <c r="L4" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -5005,6 +5850,9 @@
       </c>
       <c r="F5" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5012,22 +5860,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">C6+D6</f>
         <v>6</v>
       </c>
+      <c r="L6" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -5045,7 +5896,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -5060,7 +5911,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -5075,7 +5926,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>4</v>
@@ -5084,13 +5935,16 @@
         <f aca="false">C10+D10</f>
         <v>4</v>
       </c>
+      <c r="L10" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -5105,7 +5959,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -5120,13 +5974,16 @@
       <c r="F12" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -5141,7 +5998,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -5152,6 +6009,9 @@
       </c>
       <c r="F14" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5159,7 +6019,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -5177,7 +6037,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2</v>
@@ -5192,7 +6052,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2</v>
@@ -5212,4 +6072,341 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/inasistencias-4b-tc/alumnos-4b-tc.xlsx
+++ b/inasistencias-4b-tc/alumnos-4b-tc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="254">
   <si>
     <t xml:space="preserve">total</t>
   </si>
@@ -808,7 +808,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -887,7 +886,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -916,10 +915,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -941,11 +936,10 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font>
         <name val="Calibri"/>
-        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF006600"/>
         <sz val="12"/>
@@ -959,7 +953,6 @@
     <dxf>
       <font>
         <name val="Calibri"/>
-        <charset val="1"/>
         <family val="0"/>
         <b val="1"/>
         <color rgb="FFFFFFFF"/>
@@ -972,19 +965,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
+      <font>
+        <name val="Calibri"/>
+        <family val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="12"/>
+      </font>
     </dxf>
   </dxfs>
   <colors>
@@ -1057,19 +1043,19 @@
   </sheetPr>
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z17" activeCellId="0" sqref="Z17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.47"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="31.19"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="6" min="5" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="5" style="0" width="8.62"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="11.07"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="9" min="8" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="8" style="0" width="8.62"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="11.84"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="14" min="11" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="11.36"/>
@@ -2395,17 +2381,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="3" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="9.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,8 +2452,11 @@
       <c r="S1" s="0" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T1" s="2" t="n">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -2510,37 +2499,40 @@
       <c r="R2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="S2" s="7" t="n">
+      <c r="S2" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q2:R2,O2),0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="7" t="n">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="7" t="n">
         <v>9</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="7" t="n">
         <v>8</v>
       </c>
       <c r="J3" s="2" t="n">
@@ -2570,12 +2562,15 @@
       <c r="R3" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="S3" s="7" t="n">
+      <c r="S3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q3:R3,O3),0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -2598,7 +2593,7 @@
       <c r="K4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M4" s="9" t="n">
+      <c r="M4" s="8" t="n">
         <v>13</v>
       </c>
       <c r="N4" s="0" t="n">
@@ -2619,12 +2614,12 @@
       <c r="R4" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="S4" s="7" t="n">
+      <c r="S4" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q4:R4,O4),0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -2646,7 +2641,7 @@
       <c r="K5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M5" s="9" t="n">
+      <c r="M5" s="8" t="n">
         <v>7</v>
       </c>
       <c r="N5" s="0" t="n">
@@ -2667,12 +2662,12 @@
       <c r="R5" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="S5" s="7" t="n">
+      <c r="S5" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q5:R5,O5),0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -2694,7 +2689,7 @@
       <c r="K6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M6" s="9" t="n">
+      <c r="M6" s="8" t="n">
         <v>10</v>
       </c>
       <c r="N6" s="0" t="n">
@@ -2715,12 +2710,12 @@
       <c r="R6" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="S6" s="7" t="n">
+      <c r="S6" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q6:R6,O6),0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -2730,22 +2725,22 @@
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="9" t="n">
         <v>45849</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="9" t="n">
         <v>45849</v>
       </c>
       <c r="K7" s="0" t="n">
@@ -2772,12 +2767,15 @@
       <c r="R7" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="S7" s="7" t="n">
+      <c r="S7" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q7:R7,O7),0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T7" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -2787,28 +2785,28 @@
       <c r="C8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="9" t="n">
         <v>45848</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="H8" s="10" t="n">
+      <c r="H8" s="9" t="n">
         <v>45849</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="10" t="n">
+      <c r="J8" s="9" t="n">
         <v>45849</v>
       </c>
-      <c r="K8" s="9" t="n">
+      <c r="K8" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="L8" s="10" t="n">
+      <c r="L8" s="9" t="n">
         <v>45849</v>
       </c>
       <c r="M8" s="0" t="n">
@@ -2832,12 +2830,15 @@
       <c r="R8" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="S8" s="7" t="n">
+      <c r="S8" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q8:R8,O8),0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -2847,10 +2848,10 @@
       <c r="C9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="9" t="n">
         <v>45855</v>
       </c>
       <c r="G9" s="0" t="n">
@@ -2883,12 +2884,15 @@
       <c r="R9" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="S9" s="7" t="n">
+      <c r="S9" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q9:R9,O9),0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T9" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -2898,7 +2902,7 @@
       <c r="C10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
@@ -2907,7 +2911,7 @@
       <c r="G10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="J10" s="2" t="n">
@@ -2916,7 +2920,7 @@
       <c r="K10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="M10" s="9" t="n">
+      <c r="M10" s="8" t="n">
         <v>11</v>
       </c>
       <c r="N10" s="0" t="n">
@@ -2937,12 +2941,12 @@
       <c r="R10" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="S10" s="7" t="n">
+      <c r="S10" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q10:R10,O10),0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -2955,20 +2959,20 @@
       <c r="E11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="H11" s="10" t="n">
+      <c r="H11" s="9" t="n">
         <v>45849</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">ROUND(MAX(G12,E12),0)</f>
         <v>8</v>
       </c>
-      <c r="K11" s="9" t="n">
+      <c r="K11" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="L11" s="10" t="n">
+      <c r="L11" s="9" t="n">
         <v>45849</v>
       </c>
       <c r="M11" s="0" t="n">
@@ -2992,12 +2996,12 @@
       <c r="R11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="S11" s="7" t="n">
+      <c r="S11" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q11:R11,O11),0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -3010,16 +3014,16 @@
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="9" t="n">
         <v>45849</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="I12" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="9" t="n">
         <v>45849</v>
       </c>
       <c r="K12" s="0" t="n">
@@ -3046,12 +3050,15 @@
       <c r="R12" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="S12" s="7" t="n">
+      <c r="S12" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q12:R12,O12),0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -3094,12 +3101,15 @@
       <c r="R13" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="S13" s="7" t="n">
+      <c r="S13" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q13:R13,O13),0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T13" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -3121,7 +3131,7 @@
       <c r="K14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M14" s="9" t="n">
+      <c r="M14" s="8" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="0" t="n">
@@ -3142,12 +3152,15 @@
       <c r="R14" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="S14" s="7" t="n">
+      <c r="S14" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q14:R14,O14),0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T14" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -3190,12 +3203,15 @@
       <c r="R15" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="S15" s="7" t="n">
+      <c r="S15" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q15:R15,O15),0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T15" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
@@ -3238,12 +3254,15 @@
       <c r="R16" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="S16" s="7" t="n">
+      <c r="S16" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q16:R16,O16),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T16" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -3286,7 +3305,7 @@
       <c r="R17" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="S17" s="7" t="n">
+      <c r="S17" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q17:R17,O17),0)</f>
         <v>7</v>
       </c>
@@ -3297,7 +3316,11 @@
       <formula>6</formula>
     </cfRule>
     <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>7</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>4</formula>
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3321,7 +3344,7 @@
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.22"/>
@@ -3833,13 +3856,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
@@ -4365,7 +4388,6 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4382,13 +4404,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -4863,9 +4885,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4882,13 +4901,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -5306,9 +5325,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5331,7 +5347,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -5717,13 +5733,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
@@ -5823,7 +5839,7 @@
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7" t="n">
         <v>8</v>
       </c>
       <c r="E4" s="0" t="n">
@@ -5862,7 +5878,7 @@
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="7" t="n">
         <v>6</v>
       </c>
       <c r="E6" s="0" t="n">
@@ -6062,7 +6078,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6085,7 +6100,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.47"/>

--- a/inasistencias-4b-tc/alumnos-4b-tc.xlsx
+++ b/inasistencias-4b-tc/alumnos-4b-tc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="255">
   <si>
     <t xml:space="preserve">total</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t xml:space="preserve">matruia81@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presente</t>
   </si>
   <si>
     <t xml:space="preserve">media falta</t>
@@ -808,6 +811,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -940,6 +944,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF006600"/>
         <sz val="12"/>
@@ -953,6 +958,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <charset val="1"/>
         <family val="0"/>
         <b val="1"/>
         <color rgb="FFFFFFFF"/>
@@ -967,6 +973,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <charset val="1"/>
         <family val="0"/>
         <color rgb="FFCC0000"/>
         <sz val="12"/>
@@ -1041,13 +1048,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC22" activeCellId="0" sqref="AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -1159,6 +1166,18 @@
       <c r="Y2" s="2" t="n">
         <v>45855</v>
       </c>
+      <c r="Z2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>45904</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1236,6 +1255,15 @@
       <c r="Z3" s="3" t="n">
         <v>0.520833333333333</v>
       </c>
+      <c r="AA3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>0.527777777777778</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1307,6 +1335,12 @@
       <c r="Z4" s="3" t="n">
         <v>0.513888888888889</v>
       </c>
+      <c r="AA4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1375,6 +1409,12 @@
       <c r="Y5" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AA5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1446,6 +1486,12 @@
       <c r="Y6" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AA6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1514,6 +1560,12 @@
       <c r="Y7" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AA7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1582,6 +1634,12 @@
       <c r="Y8" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AA8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1653,6 +1711,15 @@
       <c r="Y9" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AA9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1721,6 +1788,12 @@
       <c r="Y10" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AA10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -1789,6 +1862,12 @@
       <c r="Y11" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="AA11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1857,6 +1936,12 @@
       <c r="Y12" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AA12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -1931,6 +2016,12 @@
       <c r="Z13" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
+      <c r="AA13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -2008,6 +2099,12 @@
       <c r="Y14" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="AA14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -2079,6 +2176,12 @@
       <c r="Y15" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AA15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -2153,6 +2256,12 @@
       <c r="Y16" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="AA16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -2219,6 +2328,12 @@
         <v>0</v>
       </c>
       <c r="Y17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC17" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2289,8 +2404,17 @@
       <c r="Y18" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AA18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC18" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>69</v>
+      </c>
       <c r="D19" s="0" t="s">
         <v>7</v>
       </c>
@@ -2330,10 +2454,25 @@
         <f aca="false">COUNTIF(Q3:Q18,"P")</f>
         <v>11</v>
       </c>
+      <c r="Y19" s="0" t="n">
+        <f aca="false">COUNTIF(Y3:Y18,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <f aca="false">COUNTIF(AA3:AA18,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <f aca="false">COUNTIF(AC3:AC18,"P")</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>70</v>
+      </c>
       <c r="D20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" s="0" t="n">
         <f aca="false">COUNTIF(E3:E18,"M")</f>
@@ -2347,10 +2486,25 @@
         <f aca="false">COUNTIF(I3:I18,"M")</f>
         <v>1</v>
       </c>
+      <c r="Y20" s="0" t="n">
+        <f aca="false">COUNTIF(Y3:Y18,"M")</f>
+        <v>2</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <f aca="false">COUNTIF(AA3:AA18,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <f aca="false">COUNTIF(AC3:AC18,"M")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="D21" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" s="0" t="n">
         <f aca="false">COUNTIF(E3:E18,"T")</f>
@@ -2363,6 +2517,35 @@
       <c r="I21" s="0" t="n">
         <f aca="false">COUNTIF(I3:I18,"T")</f>
         <v>1</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <f aca="false">COUNTIF(Y3:Y18,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <f aca="false">COUNTIF(AA3:AA18,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <f aca="false">COUNTIF(AC3:AC18,"T")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <f aca="false">SUM(Y19:Y21)</f>
+        <v>12</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <f aca="false">SUM(AA19:AA21)</f>
+        <v>14</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <f aca="false">SUM(AC19:AC21)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2383,11 +2566,11 @@
   </sheetPr>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
@@ -2402,55 +2585,55 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T1" s="2" t="n">
         <v>45876</v>
@@ -3344,7 +3527,7 @@
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.22"/>
@@ -3355,22 +3538,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3412,10 +3595,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -3435,10 +3618,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -3458,10 +3641,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -3483,10 +3666,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
@@ -3497,10 +3680,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -3531,10 +3714,10 @@
         <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>6</v>
@@ -3556,10 +3739,10 @@
         <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5</v>
@@ -3576,10 +3759,10 @@
         <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7</v>
@@ -3601,10 +3784,10 @@
         <v>42</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7</v>
@@ -3615,10 +3798,10 @@
         <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>4</v>
@@ -3629,10 +3812,10 @@
         <v>42</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>4</v>
@@ -3643,10 +3826,10 @@
         <v>42</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>2</v>
@@ -3663,10 +3846,10 @@
         <v>45</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -3686,10 +3869,10 @@
         <v>48</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -3723,10 +3906,10 @@
         <v>54</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>3</v>
@@ -3746,10 +3929,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -3769,10 +3952,10 @@
         <v>61</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -3806,10 +3989,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -3831,10 +4014,10 @@
         <v>67</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>8</v>
@@ -3862,7 +4045,7 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
@@ -3876,22 +4059,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,10 +4116,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8.7</v>
@@ -3956,10 +4139,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>5.8</v>
@@ -3981,10 +4164,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2.9</v>
@@ -4001,10 +4184,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6.9</v>
@@ -4038,10 +4221,10 @@
         <v>38</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>5.9</v>
@@ -4063,10 +4246,10 @@
         <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2</v>
@@ -4077,10 +4260,10 @@
         <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0.9</v>
@@ -4097,10 +4280,10 @@
         <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2.8</v>
@@ -4122,10 +4305,10 @@
         <v>42</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0.9</v>
@@ -4142,10 +4325,10 @@
         <v>45</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0.9</v>
@@ -4165,10 +4348,10 @@
         <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7.8</v>
@@ -4190,10 +4373,10 @@
         <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>5.7</v>
@@ -4238,10 +4421,10 @@
         <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
@@ -4261,10 +4444,10 @@
         <v>61</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -4298,10 +4481,10 @@
         <v>67</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -4323,10 +4506,10 @@
         <v>67</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -4337,10 +4520,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>6.9</v>
@@ -4351,10 +4534,10 @@
         <v>67</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>4.9</v>
@@ -4365,10 +4548,10 @@
         <v>67</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>3</v>
@@ -4379,10 +4562,10 @@
         <v>67</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0.9</v>
@@ -4410,7 +4593,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -4423,22 +4606,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4480,10 +4663,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -4505,10 +4688,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -4525,10 +4708,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>9</v>
@@ -4548,10 +4731,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -4573,10 +4756,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -4607,10 +4790,10 @@
         <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -4630,10 +4813,10 @@
         <v>42</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -4655,10 +4838,10 @@
         <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -4675,10 +4858,10 @@
         <v>45</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -4698,10 +4881,10 @@
         <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -4723,10 +4906,10 @@
         <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>3</v>
@@ -4737,10 +4920,10 @@
         <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>3</v>
@@ -4751,10 +4934,10 @@
         <v>48</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2</v>
@@ -4765,10 +4948,10 @@
         <v>48</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2</v>
@@ -4799,10 +4982,10 @@
         <v>54</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -4822,10 +5005,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -4873,10 +5056,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -4907,7 +5090,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -4921,22 +5104,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4978,10 +5161,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -5003,10 +5186,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -5023,10 +5206,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -5046,10 +5229,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -5083,10 +5266,10 @@
         <v>38</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>3</v>
@@ -5106,10 +5289,10 @@
         <v>42</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -5129,10 +5312,10 @@
         <v>45</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
@@ -5152,10 +5335,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -5177,10 +5360,10 @@
         <v>48</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>3</v>
@@ -5191,10 +5374,10 @@
         <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>3</v>
@@ -5205,10 +5388,10 @@
         <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2</v>
@@ -5239,10 +5422,10 @@
         <v>54</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7</v>
@@ -5262,10 +5445,10 @@
         <v>58</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -5313,10 +5496,10 @@
         <v>67</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>6</v>
@@ -5347,7 +5530,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -5360,22 +5543,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5417,10 +5600,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -5440,10 +5623,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -5463,10 +5646,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>4</v>
@@ -5486,10 +5669,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2</v>
@@ -5509,10 +5692,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -5546,10 +5729,10 @@
         <v>45</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -5569,10 +5752,10 @@
         <v>48</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>4</v>
@@ -5594,10 +5777,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
@@ -5628,10 +5811,10 @@
         <v>54</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>6</v>
@@ -5693,10 +5876,10 @@
         <v>67</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>6</v>
@@ -5739,7 +5922,7 @@
       <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
@@ -5759,7 +5942,7 @@
         <v>45750</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="2" t="n">
         <v>45799</v>
@@ -5805,16 +5988,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6100,7 +6283,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.47"/>
@@ -6116,10 +6299,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6136,7 +6319,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1.4</v>
@@ -6156,7 +6339,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>3</v>
@@ -6176,7 +6359,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9.3</v>
@@ -6196,7 +6379,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4.4</v>
@@ -6216,7 +6399,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>4.2</v>
@@ -6247,7 +6430,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0.8</v>
@@ -6267,7 +6450,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1.6</v>
@@ -6287,7 +6470,7 @@
         <v>44</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8.6</v>
@@ -6307,7 +6490,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2.1</v>
@@ -6327,7 +6510,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2.8</v>
@@ -6347,7 +6530,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2.4</v>
@@ -6367,7 +6550,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -6409,7 +6592,7 @@
         <v>66</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1.8</v>

--- a/inasistencias-4b-tc/alumnos-4b-tc.xlsx
+++ b/inasistencias-4b-tc/alumnos-4b-tc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="271">
   <si>
     <t xml:space="preserve">total</t>
   </si>
@@ -295,6 +295,54 @@
   </si>
   <si>
     <t xml:space="preserve">promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-mallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-mallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-mallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-carpetas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-tinkercad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no hay un ejercicio completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">algo de mallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hermoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falta thevenin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mucha practica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completa pero feo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viendo un podcast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falta completar</t>
   </si>
   <si>
     <t xml:space="preserve">Finalizado</t>
@@ -1048,13 +1096,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC22" activeCellId="0" sqref="AC22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI20" activeCellId="0" sqref="AI20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="20.07"/>
@@ -1064,9 +1112,9 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="11.07"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="8" style="0" width="8.62"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="11.84"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="14" min="11" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="11" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="11.36"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="24" min="16" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="16" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,6 +1226,21 @@
       <c r="AC2" s="2" t="n">
         <v>45904</v>
       </c>
+      <c r="AD2" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="2" t="n">
+        <v>45932</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1264,6 +1327,15 @@
       <c r="AC3" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AD3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1341,6 +1413,15 @@
       <c r="AC4" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AD4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH4" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1415,6 +1496,15 @@
       <c r="AC5" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AD5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1492,6 +1582,15 @@
       <c r="AC6" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AD6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH6" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1566,6 +1665,15 @@
       <c r="AC7" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AD7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH7" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1640,6 +1748,15 @@
       <c r="AC8" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AD8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH8" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1720,6 +1837,15 @@
       <c r="AC9" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AD9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH9" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1794,6 +1920,15 @@
       <c r="AC10" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AD10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH10" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -1868,6 +2003,15 @@
       <c r="AC11" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AD11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH11" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1942,6 +2086,15 @@
       <c r="AC12" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AD12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH12" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -2022,6 +2175,18 @@
       <c r="AC13" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AD13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" s="3" t="n">
+        <v>0.527777777777778</v>
+      </c>
+      <c r="AH13" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -2105,6 +2270,15 @@
       <c r="AC14" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="AD14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH14" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -2182,6 +2356,15 @@
       <c r="AC15" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AD15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH15" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -2262,6 +2445,18 @@
       <c r="AC16" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AD16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG16" s="3" t="n">
+        <v>0.527777777777778</v>
+      </c>
+      <c r="AH16" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -2334,6 +2529,15 @@
         <v>15</v>
       </c>
       <c r="AC17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH17" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2410,6 +2614,15 @@
       <c r="AC18" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AD18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH18" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
@@ -2466,6 +2679,18 @@
         <f aca="false">COUNTIF(AC3:AC18,"P")</f>
         <v>14</v>
       </c>
+      <c r="AD19" s="0" t="n">
+        <f aca="false">COUNTIF(AD3:AD18,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <f aca="false">COUNTIF(AF3:AF18,"P")</f>
+        <v>10</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <f aca="false">COUNTIF(AH3:AH18,"P")</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
@@ -2498,6 +2723,18 @@
         <f aca="false">COUNTIF(AC3:AC18,"M")</f>
         <v>0</v>
       </c>
+      <c r="AD20" s="0" t="n">
+        <f aca="false">COUNTIF(AD3:AD18,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <f aca="false">COUNTIF(AF3:AF18,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="0" t="n">
+        <f aca="false">COUNTIF(AH3:AH18,"M")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
@@ -2530,6 +2767,21 @@
         <f aca="false">COUNTIF(AC3:AC18,"T")</f>
         <v>0</v>
       </c>
+      <c r="AD21" s="0" t="n">
+        <f aca="false">COUNTIF(AD3:AD18,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="AE21" s="3" t="n">
+        <v>0.611111111111111</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <f aca="false">COUNTIF(AF3:AF18,"T")</f>
+        <v>2</v>
+      </c>
+      <c r="AH21" s="0" t="n">
+        <f aca="false">COUNTIF(AH3:AH18,"T")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
@@ -2546,6 +2798,18 @@
       <c r="AC22" s="0" t="n">
         <f aca="false">SUM(AC19:AC21)</f>
         <v>14</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <f aca="false">SUM(AD19:AD21)</f>
+        <v>14</v>
+      </c>
+      <c r="AF22" s="0" t="n">
+        <f aca="false">SUM(AF19:AF21)</f>
+        <v>12</v>
+      </c>
+      <c r="AH22" s="0" t="n">
+        <f aca="false">SUM(AH19:AH21)</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2564,17 +2828,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z12" activeCellId="0" sqref="Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="3" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="18" min="15" style="0" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,6 +2904,27 @@
       <c r="T1" s="2" t="n">
         <v>45876</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -2689,6 +2976,12 @@
       <c r="T2" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Y2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -2752,6 +3045,12 @@
       <c r="T3" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Y3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -2801,6 +3100,15 @@
         <f aca="false">ROUND(AVERAGE(Q4:R4,O4),0)</f>
         <v>9</v>
       </c>
+      <c r="V4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -2849,8 +3157,20 @@
         <f aca="false">ROUND(AVERAGE(Q5:R5,O5),0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -2897,6 +3217,15 @@
         <f aca="false">ROUND(AVERAGE(Q6:R6,O6),0)</f>
         <v>7</v>
       </c>
+      <c r="V6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -2957,6 +3286,12 @@
       <c r="T7" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="Y7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -3020,6 +3355,9 @@
       <c r="T8" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Y8" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -3074,6 +3412,9 @@
       <c r="T9" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Y9" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -3128,6 +3469,9 @@
         <f aca="false">ROUND(AVERAGE(Q10:R10,O10),0)</f>
         <v>9</v>
       </c>
+      <c r="Y10" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -3183,6 +3527,12 @@
         <f aca="false">ROUND(AVERAGE(Q11:R11,O11),0)</f>
         <v>7</v>
       </c>
+      <c r="Y11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -3240,6 +3590,9 @@
       <c r="T12" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Y12" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -3291,6 +3644,12 @@
       <c r="T13" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Y13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -3342,6 +3701,9 @@
       <c r="T14" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Y14" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -3393,6 +3755,18 @@
       <c r="T15" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="V15" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -3444,8 +3818,11 @@
       <c r="T16" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -3491,6 +3868,18 @@
       <c r="S17" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(Q17:R17,O17),0)</f>
         <v>7</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3527,7 +3916,7 @@
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.22"/>
@@ -3538,22 +3927,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,10 +3984,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -3618,10 +4007,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>10</v>
@@ -3641,10 +4030,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -3666,10 +4055,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
@@ -3680,10 +4069,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -3714,10 +4103,10 @@
         <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>6</v>
@@ -3739,10 +4128,10 @@
         <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5</v>
@@ -3759,10 +4148,10 @@
         <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7</v>
@@ -3784,10 +4173,10 @@
         <v>42</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7</v>
@@ -3798,10 +4187,10 @@
         <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>4</v>
@@ -3812,10 +4201,10 @@
         <v>42</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>4</v>
@@ -3826,10 +4215,10 @@
         <v>42</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>2</v>
@@ -3846,10 +4235,10 @@
         <v>45</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -3869,10 +4258,10 @@
         <v>48</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -3906,10 +4295,10 @@
         <v>54</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>3</v>
@@ -3929,10 +4318,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>107</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -3952,10 +4341,10 @@
         <v>61</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -3989,10 +4378,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -4014,10 +4403,10 @@
         <v>67</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>8</v>
@@ -4045,7 +4434,7 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
@@ -4059,22 +4448,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4116,10 +4505,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8.7</v>
@@ -4139,10 +4528,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>5.8</v>
@@ -4164,10 +4553,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2.9</v>
@@ -4184,10 +4573,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6.9</v>
@@ -4221,10 +4610,10 @@
         <v>38</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>5.9</v>
@@ -4246,10 +4635,10 @@
         <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2</v>
@@ -4260,10 +4649,10 @@
         <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0.9</v>
@@ -4280,10 +4669,10 @@
         <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2.8</v>
@@ -4305,10 +4694,10 @@
         <v>42</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0.9</v>
@@ -4325,10 +4714,10 @@
         <v>45</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0.9</v>
@@ -4348,10 +4737,10 @@
         <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7.8</v>
@@ -4373,10 +4762,10 @@
         <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>5.7</v>
@@ -4421,10 +4810,10 @@
         <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
@@ -4444,10 +4833,10 @@
         <v>61</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -4481,10 +4870,10 @@
         <v>67</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>10</v>
@@ -4506,10 +4895,10 @@
         <v>67</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -4520,10 +4909,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>6.9</v>
@@ -4534,10 +4923,10 @@
         <v>67</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>4.9</v>
@@ -4548,10 +4937,10 @@
         <v>67</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>3</v>
@@ -4562,10 +4951,10 @@
         <v>67</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0.9</v>
@@ -4593,7 +4982,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -4606,22 +4995,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4663,10 +5052,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -4688,10 +5077,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -4708,10 +5097,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>9</v>
@@ -4731,10 +5120,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -4756,10 +5145,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -4790,10 +5179,10 @@
         <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -4813,10 +5202,10 @@
         <v>42</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -4838,10 +5227,10 @@
         <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -4858,10 +5247,10 @@
         <v>45</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -4881,10 +5270,10 @@
         <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -4906,10 +5295,10 @@
         <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>3</v>
@@ -4920,10 +5309,10 @@
         <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>3</v>
@@ -4934,10 +5323,10 @@
         <v>48</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2</v>
@@ -4948,10 +5337,10 @@
         <v>48</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2</v>
@@ -4982,10 +5371,10 @@
         <v>54</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -5005,10 +5394,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -5056,10 +5445,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -5090,7 +5479,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -5104,22 +5493,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,10 +5550,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -5186,10 +5575,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -5206,10 +5595,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -5229,10 +5618,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -5266,10 +5655,10 @@
         <v>38</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>3</v>
@@ -5289,10 +5678,10 @@
         <v>42</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -5312,10 +5701,10 @@
         <v>45</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
@@ -5335,10 +5724,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -5360,10 +5749,10 @@
         <v>48</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>3</v>
@@ -5374,10 +5763,10 @@
         <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>3</v>
@@ -5388,10 +5777,10 @@
         <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2</v>
@@ -5422,10 +5811,10 @@
         <v>54</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7</v>
@@ -5445,10 +5834,10 @@
         <v>58</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -5496,10 +5885,10 @@
         <v>67</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>6</v>
@@ -5530,7 +5919,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.21"/>
@@ -5543,22 +5932,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,10 +5989,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -5623,10 +6012,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>6</v>
@@ -5646,10 +6035,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>4</v>
@@ -5669,10 +6058,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2</v>
@@ -5692,10 +6081,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4</v>
@@ -5729,10 +6118,10 @@
         <v>45</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -5752,10 +6141,10 @@
         <v>48</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>4</v>
@@ -5777,10 +6166,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
@@ -5811,10 +6200,10 @@
         <v>54</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>6</v>
@@ -5876,10 +6265,10 @@
         <v>67</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>6</v>
@@ -5922,7 +6311,7 @@
       <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.21"/>
@@ -5988,16 +6377,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6283,7 +6672,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.47"/>
@@ -6299,10 +6688,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6319,7 +6708,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1.4</v>
@@ -6339,7 +6728,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>3</v>
@@ -6359,7 +6748,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9.3</v>
@@ -6379,7 +6768,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4.4</v>
@@ -6399,7 +6788,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>4.2</v>
@@ -6430,7 +6819,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0.8</v>
@@ -6450,7 +6839,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1.6</v>
@@ -6470,7 +6859,7 @@
         <v>44</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8.6</v>
@@ -6490,7 +6879,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2.1</v>
@@ -6510,7 +6899,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2.8</v>
@@ -6530,7 +6919,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2.4</v>
@@ -6550,7 +6939,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -6592,7 +6981,7 @@
         <v>66</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1.8</v>
